--- a/SF1590_C ØiR - Afsend udbetalingsanmodninger til ØiR (Udbetalinger)/Documentation/Testdata G68 Kombit.xlsx
+++ b/SF1590_C ØiR - Afsend udbetalingsanmodninger til ØiR (Udbetalinger)/Documentation/Testdata G68 Kombit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="96" yWindow="36" windowWidth="22896" windowHeight="10584"/>
+    <workbookView xWindow="96" yWindow="36" windowWidth="22896" windowHeight="10584" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TEST1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="234">
   <si>
     <t>Datasæt</t>
   </si>
@@ -151,9 +151,6 @@
     <t>BERETTIGET_ID</t>
   </si>
   <si>
-    <t>0101604888</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
@@ -349,9 +346,6 @@
     <t>033</t>
   </si>
   <si>
-    <t>G68KBIT</t>
-  </si>
-  <si>
     <t>UDB-G68-TEST2</t>
   </si>
   <si>
@@ -373,9 +367,6 @@
     <t>0751</t>
   </si>
   <si>
-    <t>01092016</t>
-  </si>
-  <si>
     <t>Advisliste Ajourføring</t>
   </si>
   <si>
@@ -556,24 +547,6 @@
     <t>NYBORG K</t>
   </si>
   <si>
-    <t>HASHØJ</t>
-  </si>
-  <si>
-    <t>GRIMSTRUP</t>
-  </si>
-  <si>
-    <t>BYGGESAG</t>
-  </si>
-  <si>
-    <t>Produktion:</t>
-  </si>
-  <si>
-    <t>BZTG:</t>
-  </si>
-  <si>
-    <t>GRINDSTED</t>
-  </si>
-  <si>
     <t>HALS</t>
   </si>
   <si>
@@ -583,15 +556,6 @@
     <t>Århus</t>
   </si>
   <si>
-    <t>Hashøj</t>
-  </si>
-  <si>
-    <t>Grimstrup</t>
-  </si>
-  <si>
-    <t>Grindsted</t>
-  </si>
-  <si>
     <t>Nyborg</t>
   </si>
   <si>
@@ -613,52 +577,157 @@
     <t>UDV.GUDB.TG.GF28900X.KBIT.TEST3</t>
   </si>
   <si>
-    <t>G68-TST7-RUN01</t>
-  </si>
-  <si>
-    <t>G68-TST8-RUN01</t>
-  </si>
-  <si>
-    <t>G68-TST9-RUN01</t>
-  </si>
-  <si>
-    <t>G68-TST10-RUN01</t>
-  </si>
-  <si>
-    <t>G68-TST11-RUN01</t>
-  </si>
-  <si>
-    <t>G68-TST12-RUN01</t>
-  </si>
-  <si>
-    <t>G68-TST13-RUN01</t>
-  </si>
-  <si>
-    <t>G68-TST14-RUN01</t>
-  </si>
-  <si>
-    <t>G68-TST15-RUN01</t>
-  </si>
-  <si>
-    <t>G68-TST16-RUN01</t>
-  </si>
-  <si>
-    <t>G68-TST6-RUN01</t>
-  </si>
-  <si>
-    <t>G68-TST5-RUN01</t>
-  </si>
-  <si>
-    <t>G68-TST4-RUN01</t>
-  </si>
-  <si>
-    <t>G68-TST3-RUN01</t>
-  </si>
-  <si>
-    <t>G68-TST2-RUN01</t>
-  </si>
-  <si>
-    <t>G68-TST1-RUN01</t>
+    <t xml:space="preserve">G68-TST1-RUN01    </t>
+  </si>
+  <si>
+    <t>00000101604888</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>284</t>
+  </si>
+  <si>
+    <t>285</t>
+  </si>
+  <si>
+    <t>3201</t>
+  </si>
+  <si>
+    <t>3221</t>
+  </si>
+  <si>
+    <t>3229</t>
+  </si>
+  <si>
+    <t>3241</t>
+  </si>
+  <si>
+    <t>3244</t>
+  </si>
+  <si>
+    <t>3857</t>
+  </si>
+  <si>
+    <t>3822</t>
+  </si>
+  <si>
+    <t>Start-pos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G68KBIT     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">G68-TST2-RUN01    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">G68-TST3-RUN01    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">G68-TST4-RUN01    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">G68-TST5-RUN01    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">G68-TST6-RUN01    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">G68-TST7-RUN01    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">G68-TST8-RUN01    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">G68-TST9-RUN01    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">G68-TST10-RUN01    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">G68-TST11-RUN01    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">G68-TST12-RUN01    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">G68-TST13-RUN01    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">G68-TST14-RUN01    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">G68-TST15-RUN01    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">G68-TST16-RUN01    </t>
+  </si>
+  <si>
+    <t>Produktion/BZTG:</t>
+  </si>
+  <si>
+    <t>20160901</t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1147,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.1796875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1087,23 +1158,23 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D1" s="18"/>
       <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -1116,7 +1187,9 @@
       <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="15" t="s">
+        <v>215</v>
+      </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -1135,7 +1208,9 @@
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -1154,7 +1229,9 @@
       <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -1171,9 +1248,11 @@
         <v>20</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D7" s="14"/>
+        <v>145</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>185</v>
+      </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -1190,9 +1269,11 @@
         <v>22</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
@@ -1211,7 +1292,9 @@
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="14" t="s">
+        <v>87</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -1230,7 +1313,9 @@
       <c r="C10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -1247,9 +1332,11 @@
         <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="4"/>
+        <v>104</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>186</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -1266,9 +1353,11 @@
         <v>28</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="4"/>
+        <v>105</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>78</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -1285,9 +1374,11 @@
         <v>30</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D13" s="4"/>
+        <v>183</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>187</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -1306,7 +1397,9 @@
       <c r="C14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="14" t="s">
+        <v>188</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -1325,7 +1418,9 @@
       <c r="C15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="14" t="s">
+        <v>189</v>
+      </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -1344,7 +1439,9 @@
       <c r="C16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="14" t="s">
+        <v>190</v>
+      </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -1361,9 +1458,11 @@
         <v>40</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="4"/>
+        <v>184</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>191</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1374,15 +1473,17 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="C18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="14" t="s">
+        <v>192</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1396,12 +1497,14 @@
         <v>7</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="14" t="s">
+        <v>193</v>
+      </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1412,15 +1515,17 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="14" t="s">
+        <v>194</v>
+      </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -1434,12 +1539,14 @@
         <v>15</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -1453,12 +1560,14 @@
         <v>16</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="14" t="s">
+        <v>196</v>
+      </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1469,15 +1578,17 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="C23" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="14" t="s">
+        <v>197</v>
+      </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -1488,15 +1599,17 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="14" t="s">
+        <v>198</v>
+      </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -1507,15 +1620,17 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="C25" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="14" t="s">
+        <v>199</v>
+      </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -1526,15 +1641,17 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="C26" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="14" t="s">
+        <v>200</v>
+      </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -1545,15 +1662,17 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="C27" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>201</v>
+      </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -1564,15 +1683,17 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="C28" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="4"/>
+      <c r="D28" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -1583,15 +1704,17 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="C29" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="4"/>
+      <c r="D29" s="14" t="s">
+        <v>203</v>
+      </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -1603,12 +1726,14 @@
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="4"/>
+        <v>77</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>204</v>
+      </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -1619,15 +1744,17 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="C31" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="4"/>
+      <c r="D31" s="14" t="s">
+        <v>205</v>
+      </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -1638,15 +1765,17 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="C32" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="4"/>
+      <c r="D32" s="14" t="s">
+        <v>206</v>
+      </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -1657,15 +1786,17 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="C33" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="4"/>
+      <c r="D33" s="14" t="s">
+        <v>207</v>
+      </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -1679,12 +1810,14 @@
         <v>7</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>208</v>
+      </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -1695,15 +1828,17 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="C35" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="4"/>
+        <v>98</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>209</v>
+      </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -1714,15 +1849,17 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="C36" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>210</v>
+      </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -1733,15 +1870,17 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="C37" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" s="4"/>
+      <c r="D37" s="14" t="s">
+        <v>211</v>
+      </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -1753,12 +1892,14 @@
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>212</v>
+      </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -1770,12 +1911,14 @@
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" s="4"/>
+      <c r="D39" s="14" t="s">
+        <v>214</v>
+      </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -1787,12 +1930,14 @@
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D40" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>213</v>
+      </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -1818,8 +1963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.1796875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -1829,13 +1974,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D1" s="18"/>
       <c r="E1" s="17"/>
@@ -1845,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -1858,7 +2003,9 @@
       <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="15" t="s">
+        <v>215</v>
+      </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
@@ -1877,7 +2024,9 @@
       <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
@@ -1896,7 +2045,9 @@
       <c r="C6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
@@ -1913,9 +2064,11 @@
         <v>20</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="14"/>
+        <v>108</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>185</v>
+      </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -1932,9 +2085,11 @@
         <v>22</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" s="14"/>
+        <v>107</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
@@ -1953,7 +2108,9 @@
       <c r="C9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="14"/>
+      <c r="D9" s="14" t="s">
+        <v>87</v>
+      </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
@@ -1972,7 +2129,9 @@
       <c r="C10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="14"/>
+      <c r="D10" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
@@ -1989,9 +2148,11 @@
         <v>27</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="14"/>
+        <v>104</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>186</v>
+      </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
@@ -2008,9 +2169,11 @@
         <v>28</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="14"/>
+        <v>105</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>78</v>
+      </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
@@ -2027,9 +2190,11 @@
         <v>30</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="D13" s="14"/>
+        <v>217</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>187</v>
+      </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
@@ -2046,9 +2211,11 @@
         <v>32</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="D14" s="14"/>
+        <v>110</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>188</v>
+      </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
@@ -2067,7 +2234,9 @@
       <c r="C15" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="14"/>
+      <c r="D15" s="14" t="s">
+        <v>189</v>
+      </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
@@ -2086,7 +2255,9 @@
       <c r="C16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="14"/>
+      <c r="D16" s="14" t="s">
+        <v>190</v>
+      </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
@@ -2103,9 +2274,11 @@
         <v>40</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="14"/>
+        <v>184</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>191</v>
+      </c>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
@@ -2116,15 +2289,17 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="C18" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="14"/>
+      <c r="D18" s="14" t="s">
+        <v>192</v>
+      </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
@@ -2138,12 +2313,14 @@
         <v>7</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="14"/>
+      <c r="D19" s="14" t="s">
+        <v>193</v>
+      </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
@@ -2154,15 +2331,17 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="14"/>
+      <c r="D20" s="14" t="s">
+        <v>194</v>
+      </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
@@ -2176,12 +2355,14 @@
         <v>15</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="14"/>
+      <c r="D21" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
@@ -2195,12 +2376,14 @@
         <v>16</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="14"/>
+      <c r="D22" s="14" t="s">
+        <v>196</v>
+      </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
@@ -2211,15 +2394,17 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="C23" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="14"/>
+      <c r="D23" s="14" t="s">
+        <v>197</v>
+      </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
@@ -2230,15 +2415,17 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="14"/>
+      <c r="D24" s="14" t="s">
+        <v>198</v>
+      </c>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
@@ -2249,15 +2436,17 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="C25" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="14"/>
+      <c r="D25" s="14" t="s">
+        <v>199</v>
+      </c>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
@@ -2268,15 +2457,17 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="C26" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="14"/>
+      <c r="D26" s="14" t="s">
+        <v>200</v>
+      </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
@@ -2287,15 +2478,17 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="C27" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="14"/>
+        <v>62</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>201</v>
+      </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
@@ -2306,15 +2499,17 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="C28" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="14"/>
+      <c r="D28" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
@@ -2325,15 +2520,17 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="C29" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="D29" s="14" t="s">
+        <v>203</v>
+      </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
@@ -2345,12 +2542,14 @@
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="14"/>
+        <v>77</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>204</v>
+      </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
@@ -2361,15 +2560,17 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="C31" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="14"/>
+      <c r="D31" s="14" t="s">
+        <v>205</v>
+      </c>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
@@ -2380,15 +2581,17 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="C32" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="14"/>
+      <c r="D32" s="14" t="s">
+        <v>206</v>
+      </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
@@ -2399,15 +2602,17 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="C33" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="14"/>
+      <c r="D33" s="14" t="s">
+        <v>207</v>
+      </c>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
@@ -2421,12 +2626,14 @@
         <v>7</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="14"/>
+        <v>52</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>208</v>
+      </c>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
@@ -2437,15 +2644,17 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="C35" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="14"/>
+        <v>98</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>209</v>
+      </c>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
@@ -2456,15 +2665,17 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="C36" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" s="14"/>
+        <v>216</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>210</v>
+      </c>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
@@ -2475,15 +2686,17 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="C37" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" s="14"/>
+      <c r="D37" s="14" t="s">
+        <v>211</v>
+      </c>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
@@ -2495,12 +2708,14 @@
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="13"/>
       <c r="B38" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" s="14"/>
+        <v>94</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>212</v>
+      </c>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
@@ -2512,12 +2727,14 @@
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="13"/>
       <c r="B39" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" s="14"/>
+      <c r="D39" s="14" t="s">
+        <v>214</v>
+      </c>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
@@ -2529,12 +2746,14 @@
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="13"/>
       <c r="B40" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D40" s="14"/>
+        <v>62</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>213</v>
+      </c>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
@@ -2560,8 +2779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.1796875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -2571,13 +2790,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D1" s="18"/>
       <c r="E1" s="17"/>
@@ -2587,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -2600,7 +2819,9 @@
       <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="15" t="s">
+        <v>215</v>
+      </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
@@ -2619,7 +2840,9 @@
       <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
@@ -2638,7 +2861,9 @@
       <c r="C6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
@@ -2655,9 +2880,11 @@
         <v>20</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="D7" s="14"/>
+        <v>147</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>185</v>
+      </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -2674,9 +2901,11 @@
         <v>22</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="14"/>
+        <v>112</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
@@ -2695,7 +2924,9 @@
       <c r="C9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="14"/>
+      <c r="D9" s="14" t="s">
+        <v>87</v>
+      </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
@@ -2714,7 +2945,9 @@
       <c r="C10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="14"/>
+      <c r="D10" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
@@ -2731,9 +2964,11 @@
         <v>27</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="14"/>
+        <v>104</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>186</v>
+      </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
@@ -2750,9 +2985,11 @@
         <v>28</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="14"/>
+        <v>105</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>78</v>
+      </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
@@ -2769,9 +3006,11 @@
         <v>30</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="D13" s="14"/>
+        <v>218</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>187</v>
+      </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
@@ -2788,9 +3027,11 @@
         <v>32</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D14" s="14"/>
+        <v>111</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>188</v>
+      </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
@@ -2809,7 +3050,9 @@
       <c r="C15" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="14"/>
+      <c r="D15" s="14" t="s">
+        <v>189</v>
+      </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
@@ -2828,7 +3071,9 @@
       <c r="C16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="14"/>
+      <c r="D16" s="14" t="s">
+        <v>190</v>
+      </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
@@ -2845,9 +3090,11 @@
         <v>40</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="14"/>
+        <v>184</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>191</v>
+      </c>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
@@ -2858,15 +3105,17 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="C18" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18" s="14"/>
+        <v>233</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>192</v>
+      </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
@@ -2880,12 +3129,14 @@
         <v>7</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="14"/>
+      <c r="D19" s="14" t="s">
+        <v>193</v>
+      </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
@@ -2896,15 +3147,17 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="14"/>
+      <c r="D20" s="14" t="s">
+        <v>194</v>
+      </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
@@ -2918,12 +3171,14 @@
         <v>15</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="14"/>
+      <c r="D21" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
@@ -2937,12 +3192,14 @@
         <v>16</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="14"/>
+      <c r="D22" s="14" t="s">
+        <v>196</v>
+      </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
@@ -2953,15 +3210,17 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="C23" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="14"/>
+      <c r="D23" s="14" t="s">
+        <v>197</v>
+      </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
@@ -2972,15 +3231,17 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="14"/>
+      <c r="D24" s="14" t="s">
+        <v>198</v>
+      </c>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
@@ -2991,15 +3252,17 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="C25" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="14"/>
+      <c r="D25" s="14" t="s">
+        <v>199</v>
+      </c>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
@@ -3010,15 +3273,17 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="C26" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="14"/>
+      <c r="D26" s="14" t="s">
+        <v>200</v>
+      </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
@@ -3029,15 +3294,17 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="C27" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="14"/>
+        <v>62</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>201</v>
+      </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
@@ -3048,15 +3315,17 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="C28" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="14"/>
+      <c r="D28" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
@@ -3067,15 +3336,17 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="C29" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="D29" s="14" t="s">
+        <v>203</v>
+      </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
@@ -3087,12 +3358,14 @@
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="14"/>
+        <v>77</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>204</v>
+      </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
@@ -3103,15 +3376,17 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="C31" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="14"/>
+      <c r="D31" s="14" t="s">
+        <v>205</v>
+      </c>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
@@ -3122,15 +3397,17 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="C32" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="14"/>
+      <c r="D32" s="14" t="s">
+        <v>206</v>
+      </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
@@ -3141,15 +3418,17 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="C33" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="14"/>
+      <c r="D33" s="14" t="s">
+        <v>207</v>
+      </c>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
@@ -3163,12 +3442,14 @@
         <v>7</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="14"/>
+        <v>52</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>208</v>
+      </c>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
@@ -3179,15 +3460,17 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="C35" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="14"/>
+        <v>98</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>209</v>
+      </c>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
@@ -3198,15 +3481,17 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="C36" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" s="14"/>
+        <v>216</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>210</v>
+      </c>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
@@ -3217,15 +3502,17 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="C37" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" s="14"/>
+      <c r="D37" s="14" t="s">
+        <v>211</v>
+      </c>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
@@ -3237,12 +3524,14 @@
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="13"/>
       <c r="B38" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" s="14"/>
+        <v>94</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>212</v>
+      </c>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
@@ -3254,12 +3543,14 @@
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="13"/>
       <c r="B39" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" s="14"/>
+      <c r="D39" s="14" t="s">
+        <v>214</v>
+      </c>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
@@ -3271,12 +3562,14 @@
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="13"/>
       <c r="B40" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D40" s="14"/>
+        <v>62</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>213</v>
+      </c>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
@@ -3302,8 +3595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.1796875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -3313,13 +3606,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D1" s="18"/>
       <c r="E1" s="17"/>
@@ -3329,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -3342,7 +3635,9 @@
       <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="15" t="s">
+        <v>215</v>
+      </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
@@ -3361,7 +3656,9 @@
       <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
@@ -3380,7 +3677,9 @@
       <c r="C6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
@@ -3397,9 +3696,11 @@
         <v>20</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="D7" s="14"/>
+        <v>147</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>185</v>
+      </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -3416,9 +3717,11 @@
         <v>22</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="14"/>
+        <v>112</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
@@ -3437,7 +3740,9 @@
       <c r="C9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="14"/>
+      <c r="D9" s="14" t="s">
+        <v>87</v>
+      </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
@@ -3456,7 +3761,9 @@
       <c r="C10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="14"/>
+      <c r="D10" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
@@ -3473,9 +3780,11 @@
         <v>27</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="14"/>
+        <v>104</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>186</v>
+      </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
@@ -3492,9 +3801,11 @@
         <v>28</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="14"/>
+        <v>105</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>78</v>
+      </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
@@ -3511,9 +3822,11 @@
         <v>30</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="D13" s="14"/>
+        <v>219</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>187</v>
+      </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
@@ -3530,9 +3843,11 @@
         <v>32</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" s="14"/>
+        <v>119</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>188</v>
+      </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
@@ -3551,7 +3866,9 @@
       <c r="C15" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="14"/>
+      <c r="D15" s="14" t="s">
+        <v>189</v>
+      </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
@@ -3570,7 +3887,9 @@
       <c r="C16" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="14"/>
+      <c r="D16" s="14" t="s">
+        <v>190</v>
+      </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
@@ -3587,9 +3906,11 @@
         <v>40</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="14"/>
+        <v>184</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>191</v>
+      </c>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
@@ -3600,15 +3921,17 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="C18" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="14"/>
+      <c r="D18" s="14" t="s">
+        <v>192</v>
+      </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
@@ -3622,12 +3945,14 @@
         <v>7</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="14"/>
+      <c r="D19" s="14" t="s">
+        <v>193</v>
+      </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
@@ -3638,15 +3963,17 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="14"/>
+      <c r="D20" s="14" t="s">
+        <v>194</v>
+      </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
@@ -3660,12 +3987,14 @@
         <v>15</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="14"/>
+      <c r="D21" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
@@ -3679,12 +4008,14 @@
         <v>16</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="14"/>
+      <c r="D22" s="14" t="s">
+        <v>196</v>
+      </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
@@ -3695,15 +4026,17 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="C23" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="14"/>
+      <c r="D23" s="14" t="s">
+        <v>197</v>
+      </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
@@ -3714,15 +4047,17 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="14"/>
+      <c r="D24" s="14" t="s">
+        <v>198</v>
+      </c>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
@@ -3733,15 +4068,17 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="C25" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="14"/>
+      <c r="D25" s="14" t="s">
+        <v>199</v>
+      </c>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
@@ -3752,15 +4089,17 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="C26" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="14"/>
+      <c r="D26" s="14" t="s">
+        <v>200</v>
+      </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
@@ -3771,15 +4110,17 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="C27" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="14"/>
+        <v>62</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>201</v>
+      </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
@@ -3790,15 +4131,17 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="C28" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="14"/>
+      <c r="D28" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
@@ -3809,15 +4152,17 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="C29" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="D29" s="14" t="s">
+        <v>203</v>
+      </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
@@ -3829,12 +4174,14 @@
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="14"/>
+        <v>77</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>204</v>
+      </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
@@ -3845,15 +4192,17 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="C31" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="14"/>
+      <c r="D31" s="14" t="s">
+        <v>205</v>
+      </c>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
@@ -3864,15 +4213,17 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="C32" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="14"/>
+      <c r="D32" s="14" t="s">
+        <v>206</v>
+      </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
@@ -3883,15 +4234,17 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="C33" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="14"/>
+      <c r="D33" s="14" t="s">
+        <v>207</v>
+      </c>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
@@ -3905,12 +4258,14 @@
         <v>7</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="14"/>
+        <v>52</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>208</v>
+      </c>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
@@ -3921,15 +4276,17 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="C35" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="14"/>
+        <v>98</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>209</v>
+      </c>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
@@ -3940,15 +4297,17 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="C36" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" s="14"/>
+        <v>216</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>210</v>
+      </c>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
@@ -3959,15 +4318,17 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="C37" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" s="14"/>
+      <c r="D37" s="14" t="s">
+        <v>211</v>
+      </c>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
@@ -3979,12 +4340,14 @@
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="13"/>
       <c r="B38" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" s="14"/>
+        <v>94</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>212</v>
+      </c>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
@@ -3996,12 +4359,14 @@
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="13"/>
       <c r="B39" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" s="14"/>
+      <c r="D39" s="14" t="s">
+        <v>214</v>
+      </c>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
@@ -4013,12 +4378,14 @@
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="13"/>
       <c r="B40" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D40" s="14"/>
+        <v>62</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>213</v>
+      </c>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
@@ -4044,8 +4411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.1796875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -4055,13 +4422,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D1" s="18"/>
       <c r="E1" s="17"/>
@@ -4071,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -4084,7 +4451,9 @@
       <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="15" t="s">
+        <v>215</v>
+      </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
@@ -4103,7 +4472,9 @@
       <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
@@ -4122,7 +4493,9 @@
       <c r="C6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
@@ -4139,9 +4512,11 @@
         <v>20</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="D7" s="14"/>
+        <v>147</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>185</v>
+      </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -4158,9 +4533,11 @@
         <v>22</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="14"/>
+        <v>112</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
@@ -4179,7 +4556,9 @@
       <c r="C9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="14"/>
+      <c r="D9" s="14" t="s">
+        <v>87</v>
+      </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
@@ -4198,7 +4577,9 @@
       <c r="C10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="14"/>
+      <c r="D10" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
@@ -4215,9 +4596,11 @@
         <v>27</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="14"/>
+        <v>104</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>186</v>
+      </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
@@ -4234,9 +4617,11 @@
         <v>28</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="14"/>
+        <v>105</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>78</v>
+      </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
@@ -4253,9 +4638,11 @@
         <v>30</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="D13" s="14"/>
+        <v>220</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>187</v>
+      </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
@@ -4272,9 +4659,11 @@
         <v>32</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" s="14"/>
+        <v>120</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>188</v>
+      </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
@@ -4293,7 +4682,9 @@
       <c r="C15" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="14"/>
+      <c r="D15" s="14" t="s">
+        <v>189</v>
+      </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
@@ -4312,7 +4703,9 @@
       <c r="C16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="14"/>
+      <c r="D16" s="14" t="s">
+        <v>190</v>
+      </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
@@ -4329,9 +4722,11 @@
         <v>40</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="14"/>
+        <v>184</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>191</v>
+      </c>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
@@ -4342,15 +4737,17 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="C18" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="14"/>
+      <c r="D18" s="14" t="s">
+        <v>192</v>
+      </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
@@ -4364,12 +4761,14 @@
         <v>7</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="14"/>
+      <c r="D19" s="14" t="s">
+        <v>193</v>
+      </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
@@ -4380,15 +4779,17 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="14"/>
+      <c r="D20" s="14" t="s">
+        <v>194</v>
+      </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
@@ -4402,12 +4803,14 @@
         <v>15</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="14"/>
+      <c r="D21" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
@@ -4421,12 +4824,14 @@
         <v>16</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="14"/>
+      <c r="D22" s="14" t="s">
+        <v>196</v>
+      </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
@@ -4437,15 +4842,17 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="C23" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="14"/>
+      <c r="D23" s="14" t="s">
+        <v>197</v>
+      </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
@@ -4456,15 +4863,17 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="14"/>
+      <c r="D24" s="14" t="s">
+        <v>198</v>
+      </c>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
@@ -4475,15 +4884,17 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="C25" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="14"/>
+      <c r="D25" s="14" t="s">
+        <v>199</v>
+      </c>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
@@ -4494,15 +4905,17 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="C26" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="14"/>
+      <c r="D26" s="14" t="s">
+        <v>200</v>
+      </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
@@ -4513,15 +4926,17 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="C27" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="14"/>
+        <v>62</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>201</v>
+      </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
@@ -4532,15 +4947,17 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="C28" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="14"/>
+      <c r="D28" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
@@ -4551,15 +4968,17 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="C29" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="D29" s="14" t="s">
+        <v>203</v>
+      </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
@@ -4571,12 +4990,14 @@
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="14"/>
+        <v>77</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>204</v>
+      </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
@@ -4587,15 +5008,17 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="C31" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="14"/>
+      <c r="D31" s="14" t="s">
+        <v>205</v>
+      </c>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
@@ -4606,15 +5029,17 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="C32" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="14"/>
+      <c r="D32" s="14" t="s">
+        <v>206</v>
+      </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
@@ -4625,15 +5050,17 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="C33" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="14"/>
+      <c r="D33" s="14" t="s">
+        <v>207</v>
+      </c>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
@@ -4647,12 +5074,14 @@
         <v>7</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="14"/>
+        <v>52</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>208</v>
+      </c>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
@@ -4663,15 +5092,17 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="C35" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="14"/>
+        <v>98</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>209</v>
+      </c>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
@@ -4682,15 +5113,17 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="C36" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" s="14"/>
+        <v>216</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>210</v>
+      </c>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
@@ -4701,15 +5134,17 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="C37" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" s="14"/>
+      <c r="D37" s="14" t="s">
+        <v>211</v>
+      </c>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
@@ -4721,12 +5156,14 @@
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="13"/>
       <c r="B38" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" s="14"/>
+        <v>94</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>212</v>
+      </c>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
@@ -4738,12 +5175,14 @@
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="13"/>
       <c r="B39" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" s="14"/>
+      <c r="D39" s="14" t="s">
+        <v>214</v>
+      </c>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
@@ -4755,12 +5194,14 @@
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="13"/>
       <c r="B40" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D40" s="14"/>
+        <v>62</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>213</v>
+      </c>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
@@ -4786,8 +5227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.1796875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -4797,13 +5238,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="D1" s="18"/>
       <c r="E1" s="17"/>
@@ -4813,7 +5254,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -4826,7 +5267,9 @@
       <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="15" t="s">
+        <v>215</v>
+      </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
@@ -4845,7 +5288,9 @@
       <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
@@ -4864,7 +5309,9 @@
       <c r="C6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
@@ -4881,9 +5328,11 @@
         <v>20</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="D7" s="14"/>
+        <v>147</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>185</v>
+      </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -4900,9 +5349,11 @@
         <v>22</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="14"/>
+        <v>112</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
@@ -4921,7 +5372,9 @@
       <c r="C9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="14"/>
+      <c r="D9" s="14" t="s">
+        <v>87</v>
+      </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
@@ -4940,7 +5393,9 @@
       <c r="C10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="14"/>
+      <c r="D10" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
@@ -4957,9 +5412,11 @@
         <v>27</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="14"/>
+        <v>104</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>186</v>
+      </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
@@ -4976,9 +5433,11 @@
         <v>28</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="14"/>
+        <v>105</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>78</v>
+      </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
@@ -4995,9 +5454,11 @@
         <v>30</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="D13" s="14"/>
+        <v>221</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>187</v>
+      </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
@@ -5014,9 +5475,11 @@
         <v>32</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14" s="14"/>
+        <v>124</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>188</v>
+      </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
@@ -5033,9 +5496,11 @@
         <v>35</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="D15" s="14"/>
+        <v>125</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>189</v>
+      </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
@@ -5054,7 +5519,9 @@
       <c r="C16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="14"/>
+      <c r="D16" s="14" t="s">
+        <v>190</v>
+      </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
@@ -5071,9 +5538,11 @@
         <v>40</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="14"/>
+        <v>184</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>191</v>
+      </c>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
@@ -5084,15 +5553,17 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="C18" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="14"/>
+      <c r="D18" s="14" t="s">
+        <v>192</v>
+      </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
@@ -5106,12 +5577,14 @@
         <v>7</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="14"/>
+      <c r="D19" s="14" t="s">
+        <v>193</v>
+      </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
@@ -5122,15 +5595,17 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="14"/>
+      <c r="D20" s="14" t="s">
+        <v>194</v>
+      </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
@@ -5144,12 +5619,14 @@
         <v>15</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="14"/>
+      <c r="D21" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
@@ -5163,12 +5640,14 @@
         <v>16</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="14"/>
+      <c r="D22" s="14" t="s">
+        <v>196</v>
+      </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
@@ -5179,15 +5658,17 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="C23" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="14"/>
+      <c r="D23" s="14" t="s">
+        <v>197</v>
+      </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
@@ -5198,15 +5679,17 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="14"/>
+      <c r="D24" s="14" t="s">
+        <v>198</v>
+      </c>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
@@ -5217,15 +5700,17 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="C25" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="14"/>
+      <c r="D25" s="14" t="s">
+        <v>199</v>
+      </c>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
@@ -5236,15 +5721,17 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="C26" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="14"/>
+      <c r="D26" s="14" t="s">
+        <v>200</v>
+      </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
@@ -5255,15 +5742,17 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="C27" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="14"/>
+        <v>62</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>201</v>
+      </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
@@ -5274,15 +5763,17 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="C28" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="14"/>
+      <c r="D28" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
@@ -5293,15 +5784,17 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="C29" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="D29" s="14" t="s">
+        <v>203</v>
+      </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
@@ -5313,12 +5806,14 @@
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="14"/>
+        <v>77</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>204</v>
+      </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
@@ -5329,15 +5824,17 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="C31" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="14"/>
+      <c r="D31" s="14" t="s">
+        <v>205</v>
+      </c>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
@@ -5348,15 +5845,17 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="C32" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="14"/>
+      <c r="D32" s="14" t="s">
+        <v>206</v>
+      </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
@@ -5367,15 +5866,17 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="C33" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="14"/>
+      <c r="D33" s="14" t="s">
+        <v>207</v>
+      </c>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
@@ -5389,12 +5890,14 @@
         <v>7</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="14"/>
+        <v>52</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>208</v>
+      </c>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
@@ -5405,15 +5908,17 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="C35" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="14"/>
+        <v>98</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>209</v>
+      </c>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
@@ -5424,15 +5929,17 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="C36" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" s="14"/>
+        <v>216</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>210</v>
+      </c>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
@@ -5443,15 +5950,17 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="C37" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" s="14"/>
+      <c r="D37" s="14" t="s">
+        <v>211</v>
+      </c>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
@@ -5463,12 +5972,14 @@
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="13"/>
       <c r="B38" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" s="14"/>
+        <v>94</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>212</v>
+      </c>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
@@ -5480,12 +5991,14 @@
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="13"/>
       <c r="B39" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" s="14"/>
+      <c r="D39" s="14" t="s">
+        <v>214</v>
+      </c>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
@@ -5497,12 +6010,14 @@
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="13"/>
       <c r="B40" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D40" s="14"/>
+        <v>62</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>213</v>
+      </c>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
@@ -5528,8 +6043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -5548,10 +6063,10 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="17"/>
@@ -5566,7 +6081,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="14"/>
@@ -5580,34 +6095,34 @@
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="G3" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>168</v>
-      </c>
       <c r="H3" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -5630,22 +6145,22 @@
         <v>6</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K4" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="L4" s="15" t="s">
         <v>140</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>143</v>
       </c>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
@@ -5706,7 +6221,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>18</v>
@@ -5735,34 +6250,34 @@
         <v>20</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -5773,34 +6288,34 @@
         <v>22</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -5887,34 +6402,34 @@
         <v>27</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -5925,34 +6440,34 @@
         <v>28</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -5963,34 +6478,34 @@
         <v>30</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -6001,34 +6516,34 @@
         <v>32</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E14" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="F14" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>136</v>
-      </c>
       <c r="H14" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I14" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="L14" s="14" t="s">
         <v>141</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="K14" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -6066,7 +6581,7 @@
         <v>36</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -6115,72 +6630,72 @@
         <v>40</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="L17" s="14" t="s">
-        <v>41</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="C18" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>44</v>
-      </c>
       <c r="D18" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>26</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>115</v>
+        <v>233</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>115</v>
+        <v>233</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -6188,45 +6703,45 @@
         <v>7</v>
       </c>
       <c r="B19" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>46</v>
-      </c>
       <c r="D19" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>26</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>9</v>
@@ -6264,37 +6779,37 @@
         <v>15</v>
       </c>
       <c r="B21" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="D21" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>51</v>
-      </c>
       <c r="G21" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -6302,101 +6817,101 @@
         <v>16</v>
       </c>
       <c r="B22" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>53</v>
-      </c>
       <c r="D22" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F22" s="14" t="s">
         <v>26</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L22" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="C23" s="14" t="s">
         <v>55</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>56</v>
       </c>
       <c r="D23" s="14">
         <v>7646</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F23" s="14" t="s">
         <v>26</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H23" s="14">
         <v>7646</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L23" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>58</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>25</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>25</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I24" s="14" t="s">
         <v>25</v>
@@ -6413,342 +6928,342 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="C25" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="D25" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>63</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>64</v>
       </c>
       <c r="F25" s="14" t="s">
         <v>26</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L25" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="C26" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>67</v>
-      </c>
       <c r="D26" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F26" s="14" t="s">
         <v>26</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L26" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="C27" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="14" t="s">
         <v>69</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>70</v>
       </c>
       <c r="F27" s="14" t="s">
         <v>26</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="C28" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>73</v>
-      </c>
       <c r="D28" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F28" s="14" t="s">
         <v>26</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L28" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="C29" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="D29" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>77</v>
-      </c>
       <c r="F29" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F30" s="14" t="s">
         <v>26</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L30" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="C31" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>81</v>
-      </c>
       <c r="D31" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L31" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="C32" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>84</v>
-      </c>
       <c r="D32" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L32" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="C33" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>87</v>
-      </c>
       <c r="D33" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F33" s="14" t="s">
         <v>26</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K33" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L33" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -6756,268 +7271,268 @@
         <v>7</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F34" s="14" t="s">
         <v>26</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L34" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>89</v>
-      </c>
       <c r="C35" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J35" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L35" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>91</v>
-      </c>
       <c r="C36" s="14" t="s">
-        <v>107</v>
+        <v>216</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>107</v>
+        <v>216</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>107</v>
+        <v>216</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>107</v>
+        <v>216</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>107</v>
+        <v>216</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>107</v>
+        <v>216</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>107</v>
+        <v>216</v>
       </c>
       <c r="J36" s="14" t="s">
-        <v>107</v>
+        <v>216</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>107</v>
+        <v>216</v>
       </c>
       <c r="L36" s="14" t="s">
-        <v>107</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="C37" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="14" t="s">
-        <v>94</v>
-      </c>
       <c r="D37" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J37" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L37" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="13"/>
       <c r="B38" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F38" s="14" t="s">
         <v>26</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J38" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L38" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B39" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>97</v>
-      </c>
       <c r="D39" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F39" s="14" t="s">
         <v>26</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J39" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L39" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J40" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K40" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L40" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="13.8" x14ac:dyDescent="0.2">
@@ -7025,52 +7540,52 @@
     </row>
     <row r="44" spans="1:12" ht="13.8" x14ac:dyDescent="0.2">
       <c r="A44" s="21" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="13.8" x14ac:dyDescent="0.2">
       <c r="A45" s="22" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="13.8" x14ac:dyDescent="0.2">
       <c r="A46" s="22" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="13.8" x14ac:dyDescent="0.2">
       <c r="A47" s="22" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="13.8" x14ac:dyDescent="0.2">
       <c r="A48" s="22" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="13.8" x14ac:dyDescent="0.2">
       <c r="A49" s="22" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="13.8" x14ac:dyDescent="0.2">
       <c r="A50" s="22" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="13.8" x14ac:dyDescent="0.2">
       <c r="A51" s="22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="13.8" x14ac:dyDescent="0.2">
       <c r="A52" s="22" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="13.8" x14ac:dyDescent="0.2">
       <c r="A53" s="22" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="13.8" x14ac:dyDescent="0.2">
@@ -7078,7 +7593,7 @@
     </row>
     <row r="55" spans="1:1" ht="13.8" x14ac:dyDescent="0.2">
       <c r="A55" s="21" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -7090,10 +7605,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A6" sqref="A6:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -7108,7 +7623,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>179</v>
+        <v>232</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -7120,22 +7635,22 @@
     </row>
     <row r="2" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>172</v>
-      </c>
       <c r="E2" s="18" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
@@ -7145,16 +7660,16 @@
         <v>751</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D3" s="19">
         <v>325</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F3" s="19">
         <v>84405</v>
@@ -7165,16 +7680,16 @@
         <v>450</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D4" s="19">
         <v>819646</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F4" s="19">
         <v>834633</v>
@@ -7185,10 +7700,10 @@
         <v>260</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D5" s="19">
         <v>819625</v>
@@ -7199,9 +7714,7 @@
       <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
-        <v>180</v>
-      </c>
+      <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -7210,63 +7723,10 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="19">
-        <v>751</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="D7" s="19">
-        <v>325</v>
-      </c>
-      <c r="E7" s="19">
-        <v>641004852</v>
-      </c>
-      <c r="F7" s="19">
-        <v>84405</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="19">
-        <v>450</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D8" s="19">
-        <v>819646</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="F8" s="19">
-        <v>834633</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="19">
-        <v>260</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="D9" s="19">
-        <v>819625</v>
-      </c>
-    </row>
   </sheetData>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7295,8 +7755,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101001EAED320C5BC464AB54F790A760BE829" ma:contentTypeVersion="" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="bddc90f9413428a048aafac17fc4a4b8">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="546bb39d5463198e187e97b4d2ec5ff8" ns1:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101008E0B7D38E4258844897A19598B2E0E1C" ma:contentTypeVersion="2" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="1522932ced3d8d0fbbdc0236e42ef527">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3fe48988bd14f1f5287e128ef4d8b91b" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -7441,13 +7901,43 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F44DDD4D-E43A-48D0-ADB3-8219FF5B0680}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F44DDD4D-E43A-48D0-ADB3-8219FF5B0680}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB867D05-8470-422F-A974-0D414FFB0255}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB867D05-8470-422F-A974-0D414FFB0255}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E18ACC6-9B3C-4307-AD65-D278CFC7C13A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01400007-0071-476B-9690-E42A5B457041}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>